--- a/SOC_Range.xlsx
+++ b/SOC_Range.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>Battery State of Charge (Plant 9209949):</t>
+    <t>Battery State of Charge (Plant 5340310):</t>
   </si>
   <si>
     <t>Date</t>
@@ -25,37 +25,37 @@
     <t>State of Charge (%)</t>
   </si>
   <si>
-    <t>2023-02-1</t>
-  </si>
-  <si>
-    <t>2023-02-2</t>
-  </si>
-  <si>
-    <t>2023-02-3</t>
-  </si>
-  <si>
-    <t>2023-02-4</t>
-  </si>
-  <si>
-    <t>2023-02-5</t>
-  </si>
-  <si>
-    <t>2023-02-6</t>
-  </si>
-  <si>
-    <t>2023-02-7</t>
-  </si>
-  <si>
-    <t>2023-02-8</t>
-  </si>
-  <si>
-    <t>2023-02-9</t>
-  </si>
-  <si>
-    <t>2023-02-10</t>
-  </si>
-  <si>
-    <t>2023-02-11</t>
+    <t>2023-03-1</t>
+  </si>
+  <si>
+    <t>2023-03-2</t>
+  </si>
+  <si>
+    <t>2023-03-3</t>
+  </si>
+  <si>
+    <t>2023-03-4</t>
+  </si>
+  <si>
+    <t>2023-03-5</t>
+  </si>
+  <si>
+    <t>2023-03-6</t>
+  </si>
+  <si>
+    <t>2023-03-7</t>
+  </si>
+  <si>
+    <t>2023-03-8</t>
+  </si>
+  <si>
+    <t>2023-03-9</t>
+  </si>
+  <si>
+    <t>2023-03-10</t>
+  </si>
+  <si>
+    <t>2023-03-11</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>56.99999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -443,7 +443,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -451,7 +451,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -459,7 +459,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>57.99999999999999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -467,7 +467,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>56.00000000000001</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -475,7 +475,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>57.99999999999999</v>
+        <v>56.99999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -483,7 +483,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>56.00000000000001</v>
+        <v>55.00000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -491,7 +491,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>56.00000000000001</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -499,7 +499,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>55.00000000000001</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -507,7 +507,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>50</v>
+        <v>56.00000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/SOC_Range.xlsx
+++ b/SOC_Range.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>Battery State of Charge (Plant 5340310):</t>
+    <t>Battery State of Charge (Plant 9209949):</t>
   </si>
   <si>
     <t>Date</t>
